--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2732.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2732.xlsx
@@ -354,7 +354,7 @@
         <v>2.400217407332031</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.368940624562585</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2732.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2732.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161288269796524</v>
+        <v>0.6816443800926208</v>
       </c>
       <c r="B1">
-        <v>2.400217407332031</v>
+        <v>0.9870653748512268</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.926884770393372</v>
       </c>
       <c r="D1">
-        <v>2.368940624562585</v>
+        <v>3.284640073776245</v>
       </c>
       <c r="E1">
-        <v>1.21865459171739</v>
+        <v>3.639800071716309</v>
       </c>
     </row>
   </sheetData>
